--- a/fictional-example/flattened/ocds-213czf-000-00001-04-award.xlsx
+++ b/fictional-example/flattened/ocds-213czf-000-00001-04-award.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="309">
   <si>
     <t>ocid</t>
   </si>
@@ -43,6 +43,18 @@
     <t>id</t>
   </si>
   <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>initiationType</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
     <t>parties/0/id</t>
   </si>
   <si>
@@ -52,57 +64,45 @@
     <t>parties/0/roles</t>
   </si>
   <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>initiationType</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
     <t>ocds-213czf-000-00001</t>
   </si>
   <si>
+    <t>parties/0/identifier/scheme</t>
+  </si>
+  <si>
+    <t>parties/0/identifier/id</t>
+  </si>
+  <si>
+    <t>parties/0/identifier/legalName</t>
+  </si>
+  <si>
     <t>ocds-213czf-000-00001-04-award</t>
   </si>
   <si>
+    <t>parties/0/identifier/uri</t>
+  </si>
+  <si>
     <t>en</t>
   </si>
   <si>
-    <t>parties/0/identifier/scheme</t>
+    <t>parties/0/address/streetAddress</t>
   </si>
   <si>
     <t>2010-05-10T09:30:00Z</t>
   </si>
   <si>
+    <t>parties/0/address/locality</t>
+  </si>
+  <si>
     <t>tender</t>
   </si>
   <si>
+    <t>parties/0/address/region</t>
+  </si>
+  <si>
     <t>award</t>
   </si>
   <si>
-    <t>parties/0/identifier/id</t>
-  </si>
-  <si>
-    <t>parties/0/identifier/legalName</t>
-  </si>
-  <si>
-    <t>parties/0/identifier/uri</t>
-  </si>
-  <si>
-    <t>parties/0/address/streetAddress</t>
-  </si>
-  <si>
-    <t>parties/0/address/locality</t>
-  </si>
-  <si>
-    <t>parties/0/address/region</t>
-  </si>
-  <si>
     <t>parties/0/address/postalCode</t>
   </si>
   <si>
@@ -130,6 +130,9 @@
     <t>London Borough of Barnet</t>
   </si>
   <si>
+    <t>buyer</t>
+  </si>
+  <si>
     <t>GB-LAC</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t>AnyCorp Cycle Provision</t>
   </si>
   <si>
+    <t>supplier</t>
+  </si>
+  <si>
     <t>GB-COH</t>
   </si>
   <si>
@@ -208,6 +214,15 @@
     <t>Beta Corp Construction</t>
   </si>
   <si>
+    <t>tenderer</t>
+  </si>
+  <si>
+    <t>buyer/id</t>
+  </si>
+  <si>
+    <t>buyer/name</t>
+  </si>
+  <si>
     <t>Beta Corp Ltd</t>
   </si>
   <si>
@@ -238,12 +253,6 @@
     <t>http://www.betacorp.example</t>
   </si>
   <si>
-    <t>buyer/id</t>
-  </si>
-  <si>
-    <t>buyer/name</t>
-  </si>
-  <si>
     <t>planning/budget/id</t>
   </si>
   <si>
@@ -268,31 +277,46 @@
     <t>planning/rationale</t>
   </si>
   <si>
+    <t>planning/milestones/0/id</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/type</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/code</t>
+  </si>
+  <si>
+    <t>planning/milestones/0/title</t>
+  </si>
+  <si>
     <t>planning/documents/0/id</t>
   </si>
   <si>
-    <t>planning/milestones/0/id</t>
+    <t>planning/milestones/0/description</t>
   </si>
   <si>
     <t>planning/documents/0/documentType</t>
   </si>
   <si>
-    <t>planning/milestones/0/type</t>
+    <t>planning/milestones/0/status</t>
   </si>
   <si>
     <t>planning/documents/0/title</t>
   </si>
   <si>
-    <t>planning/milestones/0/code</t>
+    <t>planning/milestones/0/dueDate</t>
   </si>
   <si>
     <t>planning/documents/0/description</t>
   </si>
   <si>
+    <t>planning/milestones/0/dateMet</t>
+  </si>
+  <si>
     <t>planning/documents/0/url</t>
   </si>
   <si>
-    <t>planning/milestones/0/title</t>
+    <t>planning/milestones/0/dateModified</t>
   </si>
   <si>
     <t>planning/documents/0/datePublished</t>
@@ -301,27 +325,12 @@
     <t>planning/documents/0/dateModified</t>
   </si>
   <si>
-    <t>planning/milestones/0/description</t>
-  </si>
-  <si>
     <t>planning/documents/0/format</t>
   </si>
   <si>
-    <t>planning/milestones/0/status</t>
-  </si>
-  <si>
     <t>planning/documents/0/language</t>
   </si>
   <si>
-    <t>planning/milestones/0/dueDate</t>
-  </si>
-  <si>
-    <t>planning/milestones/0/dateMet</t>
-  </si>
-  <si>
-    <t>planning/milestones/0/dateModified</t>
-  </si>
-  <si>
     <t>tender/id</t>
   </si>
   <si>
@@ -487,54 +496,60 @@
     <t>tender/items/0/quantity</t>
   </si>
   <si>
+    <t>tender/items/0/additionalClassifications/0/scheme</t>
+  </si>
+  <si>
     <t>tender/items/0/unit/name</t>
   </si>
   <si>
     <t>tender/items/0/unit/id</t>
   </si>
   <si>
+    <t>tender/items/0/additionalClassifications/0/id</t>
+  </si>
+  <si>
     <t>tender/items/0/unit/scheme</t>
   </si>
   <si>
+    <t>tender/items/0/additionalClassifications/0/description</t>
+  </si>
+  <si>
     <t>tender/items/0/unit/uri</t>
   </si>
   <si>
+    <t>tender/items/0/additionalClassifications/0/uri</t>
+  </si>
+  <si>
     <t>tender/items/0/unit/value/amount</t>
   </si>
   <si>
     <t>tender/items/0/unit/value/currency</t>
   </si>
   <si>
-    <t>tender/items/0/additionalClassifications/0/scheme</t>
-  </si>
-  <si>
-    <t>tender/items/0/additionalClassifications/0/id</t>
-  </si>
-  <si>
-    <t>tender/items/0/additionalClassifications/0/description</t>
-  </si>
-  <si>
-    <t>tender/items/0/additionalClassifications/0/uri</t>
-  </si>
-  <si>
     <t>tender/amendments/0/date</t>
   </si>
   <si>
+    <t>tender/amendments/0/rationale</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/id</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/description</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/amendsReleaseID</t>
+  </si>
+  <si>
+    <t>tender/amendments/0/releaseID</t>
+  </si>
+  <si>
     <t>awards/0/id</t>
   </si>
   <si>
-    <t>tender/amendments/0/rationale</t>
-  </si>
-  <si>
     <t>awards/0/title</t>
   </si>
   <si>
-    <t>tender/amendments/0/id</t>
-  </si>
-  <si>
-    <t>tender/amendments/0/description</t>
-  </si>
-  <si>
     <t>awards/0/description</t>
   </si>
   <si>
@@ -544,15 +559,9 @@
     <t>awards/0/date</t>
   </si>
   <si>
-    <t>tender/amendments/0/amendsReleaseID</t>
-  </si>
-  <si>
     <t>awards/0/value/amount</t>
   </si>
   <si>
-    <t>tender/amendments/0/releaseID</t>
-  </si>
-  <si>
     <t>awards/0/value/currency</t>
   </si>
   <si>
@@ -637,75 +646,75 @@
     <t>awards/0/items/0/unit/value/currency</t>
   </si>
   <si>
+    <t>awards/0/items/0/additionalClassifications/0/scheme</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/additionalClassifications/0/id</t>
+  </si>
+  <si>
+    <t>awards/0/items/0/additionalClassifications/0/description</t>
+  </si>
+  <si>
     <t>Cycle lane improvements</t>
   </si>
   <si>
+    <t>awards/0/items/0/additionalClassifications/0/uri</t>
+  </si>
+  <si>
     <t>CPV</t>
   </si>
   <si>
+    <t>Construction work for highways</t>
+  </si>
+  <si>
+    <t>http://cpv.data.ac.uk/code-45233130</t>
+  </si>
+  <si>
+    <t>45233162-2</t>
+  </si>
+  <si>
+    <t>Cycle path construction work</t>
+  </si>
+  <si>
+    <t>http://cpv.data.ac.uk/code-45233162.html</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>UNCEFACT</t>
+  </si>
+  <si>
     <t>awards/0/documents/0/id</t>
   </si>
   <si>
-    <t>Construction work for highways</t>
-  </si>
-  <si>
-    <t>awards/0/items/0/additionalClassifications/0/scheme</t>
-  </si>
-  <si>
     <t>awards/0/documents/0/documentType</t>
   </si>
   <si>
-    <t>http://cpv.data.ac.uk/code-45233130</t>
-  </si>
-  <si>
     <t>awards/0/documents/0/title</t>
   </si>
   <si>
-    <t>awards/0/items/0/additionalClassifications/0/id</t>
-  </si>
-  <si>
     <t>awards/0/documents/0/description</t>
   </si>
   <si>
     <t>awards/0/documents/0/url</t>
   </si>
   <si>
-    <t>awards/0/items/0/additionalClassifications/0/description</t>
-  </si>
-  <si>
     <t>awards/0/documents/0/datePublished</t>
   </si>
   <si>
     <t>awards/0/documents/0/dateModified</t>
   </si>
   <si>
-    <t>awards/0/items/0/additionalClassifications/0/uri</t>
-  </si>
-  <si>
-    <t>Miles</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>UNCEFACT</t>
-  </si>
-  <si>
-    <t>45233162-2</t>
-  </si>
-  <si>
-    <t>Cycle path construction work</t>
-  </si>
-  <si>
     <t>awards/0/documents/0/format</t>
   </si>
   <si>
     <t>awards/0/documents/0/language</t>
   </si>
   <si>
-    <t>http://cpv.data.ac.uk/code-45233162.html</t>
-  </si>
-  <si>
     <t>awardNotice</t>
   </si>
   <si>
@@ -724,90 +733,90 @@
     <t>contracts/0/id</t>
   </si>
   <si>
+    <t>contracts/0/awardID</t>
+  </si>
+  <si>
+    <t>contracts/0/title</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/id</t>
   </si>
   <si>
+    <t>contracts/0/description</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/description</t>
   </si>
   <si>
+    <t>contracts/0/status</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/classification/scheme</t>
   </si>
   <si>
+    <t>contracts/0/period/startDate</t>
+  </si>
+  <si>
+    <t>contracts/0/period/endDate</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/classification/id</t>
   </si>
   <si>
+    <t>contracts/0/period/maxExtentDate</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/classification/description</t>
   </si>
   <si>
+    <t>contracts/0/period/durationInDays</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/classification/uri</t>
   </si>
   <si>
+    <t>contracts/0/value/amount</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/quantity</t>
   </si>
   <si>
+    <t>contracts/0/value/currency</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/unit/name</t>
   </si>
   <si>
+    <t>contracts/0/dateSigned</t>
+  </si>
+  <si>
     <t>contracts/0/items/0/unit/id</t>
   </si>
   <si>
-    <t>contracts/0/awardID</t>
-  </si>
-  <si>
     <t>contracts/0/items/0/unit/scheme</t>
   </si>
   <si>
     <t>contracts/0/items/0/unit/uri</t>
   </si>
   <si>
-    <t>contracts/0/title</t>
-  </si>
-  <si>
     <t>contracts/0/items/0/unit/value/amount</t>
   </si>
   <si>
-    <t>contracts/0/description</t>
-  </si>
-  <si>
-    <t>contracts/0/status</t>
-  </si>
-  <si>
     <t>contracts/0/items/0/unit/value/currency</t>
   </si>
   <si>
-    <t>contracts/0/period/startDate</t>
-  </si>
-  <si>
     <t>contracts/0/items/0/additionalClassifications/0/scheme</t>
   </si>
   <si>
-    <t>contracts/0/period/endDate</t>
-  </si>
-  <si>
     <t>contracts/0/items/0/additionalClassifications/0/id</t>
   </si>
   <si>
-    <t>contracts/0/period/maxExtentDate</t>
-  </si>
-  <si>
     <t>contracts/0/items/0/additionalClassifications/0/description</t>
   </si>
   <si>
-    <t>contracts/0/period/durationInDays</t>
-  </si>
-  <si>
     <t>contracts/0/items/0/additionalClassifications/0/uri</t>
   </si>
   <si>
-    <t>contracts/0/value/amount</t>
-  </si>
-  <si>
-    <t>contracts/0/value/currency</t>
-  </si>
-  <si>
-    <t>contracts/0/dateSigned</t>
-  </si>
-  <si>
     <t>contracts/0/relatedProcesses/0/id</t>
   </si>
   <si>
@@ -832,48 +841,48 @@
     <t>contracts/0/documents/0/documentType</t>
   </si>
   <si>
+    <t>contracts/0/implementation/transactions/0/id</t>
+  </si>
+  <si>
     <t>contracts/0/documents/0/title</t>
   </si>
   <si>
+    <t>contracts/0/implementation/transactions/0/source</t>
+  </si>
+  <si>
     <t>contracts/0/documents/0/description</t>
   </si>
   <si>
+    <t>contracts/0/implementation/transactions/0/date</t>
+  </si>
+  <si>
     <t>contracts/0/documents/0/url</t>
   </si>
   <si>
+    <t>contracts/0/implementation/transactions/0/value/amount</t>
+  </si>
+  <si>
     <t>contracts/0/documents/0/datePublished</t>
   </si>
   <si>
-    <t>contracts/0/implementation/transactions/0/id</t>
+    <t>contracts/0/implementation/transactions/0/value/currency</t>
   </si>
   <si>
     <t>contracts/0/documents/0/dateModified</t>
   </si>
   <si>
-    <t>contracts/0/implementation/transactions/0/source</t>
-  </si>
-  <si>
-    <t>contracts/0/implementation/transactions/0/date</t>
+    <t>contracts/0/implementation/transactions/0/payer/id</t>
   </si>
   <si>
     <t>contracts/0/documents/0/format</t>
   </si>
   <si>
+    <t>contracts/0/implementation/transactions/0/payer/name</t>
+  </si>
+  <si>
     <t>contracts/0/documents/0/language</t>
   </si>
   <si>
-    <t>contracts/0/implementation/transactions/0/value/amount</t>
-  </si>
-  <si>
-    <t>contracts/0/implementation/transactions/0/value/currency</t>
-  </si>
-  <si>
-    <t>contracts/0/implementation/transactions/0/payer/id</t>
-  </si>
-  <si>
-    <t>contracts/0/implementation/transactions/0/payer/name</t>
-  </si>
-  <si>
     <t>contracts/0/implementation/transactions/0/payee/id</t>
   </si>
   <si>
@@ -904,13 +913,13 @@
     <t>contracts/0/implementation/documents/0/dateModified</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>contracts/0/implementation/documents/0/format</t>
   </si>
   <si>
     <t>contracts/0/implementation/documents/0/language</t>
-  </si>
-  <si>
-    <t>version</t>
   </si>
   <si>
     <t>uri</t>
@@ -1150,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -1161,13 +1170,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -1175,13 +1184,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1204,43 +1213,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1263,19 +1272,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1298,22 +1307,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1336,43 +1345,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -1380,43 +1389,43 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3">
         <v>1.1E7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1439,46 +1448,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
@@ -1486,46 +1495,46 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3">
         <v>1.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G2" s="3">
         <v>4.523313E7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J2" s="3">
         <v>8.0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="O2" s="3">
         <v>137000.0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1551,22 +1560,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
@@ -1574,25 +1583,25 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3">
         <v>1.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1618,34 +1627,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
@@ -1653,34 +1662,34 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3">
         <v>7.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1706,40 +1715,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1762,46 +1771,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1824,16 +1833,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -1841,19 +1850,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1876,22 +1885,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1914,25 +1923,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1955,34 +1964,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2005,37 +2014,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2058,34 +2067,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2114,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B1" s="5">
         <v>1.1</v>
@@ -2113,44 +2122,44 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B7" s="1">
         <v>9506232.0</v>
@@ -2158,26 +2167,26 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2206,34 +2215,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>22</v>
@@ -2262,7 +2271,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -2270,44 +2279,47 @@
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -2315,52 +2327,55 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1">
         <v>1.1111111E7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -2368,52 +2383,55 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1">
         <v>2.2222222E7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2441,10 +2459,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -2452,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -2481,28 +2499,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2525,31 +2543,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2572,31 +2590,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2619,100 +2637,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
@@ -2720,22 +2738,22 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AG2" s="3">
         <v>2.0</v>
@@ -2764,31 +2782,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
